--- a/BaseProject_QA_Automation/target/classes/testExecutions/appInteraction/pagesTests/resources/ChartSample.xlsx
+++ b/BaseProject_QA_Automation/target/classes/testExecutions/appInteraction/pagesTests/resources/ChartSample.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8239B71F-42C2-4B72-8E6B-E4DE6311AF55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD82E1E5-BAE9-4267-BB92-664400FD6073}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="3330" windowWidth="19695" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="3015" windowWidth="19695" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Key</t>
   </si>
@@ -33,13 +33,37 @@
   </si>
   <si>
     <t>Accion</t>
+  </si>
+  <si>
+    <t>and_user_login</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>and_password_login</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>and_enter_button_login</t>
+  </si>
+  <si>
+    <t>ablasifl7@gmail.com</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +71,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,13 +109,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Èmfasi2" xfId="1" builtinId="33"/>
+    <cellStyle name="Enllaç" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,29 +400,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D1A0A453-2835-40AF-A3D9-CAB138496438}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
